--- a/氣象性能評估工具V2/data/obs/2016-06-11_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-11_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="160">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>19.9</t>
+  </si>
+  <si>
     <t>2016-06-11-00</t>
   </si>
   <si>
-    <t>19.9</t>
-  </si>
-  <si>
     <t>25.7</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>26.6</t>
   </si>
   <si>
+    <t>20.0</t>
+  </si>
+  <si>
     <t>2016-06-11-01</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>25.6</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>27.2</t>
   </si>
   <si>
+    <t>20.2</t>
+  </si>
+  <si>
     <t>2016-06-11-02</t>
   </si>
   <si>
-    <t>20.2</t>
-  </si>
-  <si>
     <t>21.7</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>27.5</t>
   </si>
   <si>
+    <t>20.9</t>
+  </si>
+  <si>
     <t>2016-06-11-04</t>
   </si>
   <si>
-    <t>20.9</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>26.4</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-11-07</t>
   </si>
   <si>
-    <t>21.4</t>
-  </si>
-  <si>
     <t>23.4</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>2016-06-11-09</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
     <t>29.0</t>
   </si>
   <si>
@@ -373,10 +373,10 @@
     <t>14.1</t>
   </si>
   <si>
+    <t>21.1</t>
+  </si>
+  <si>
     <t>2016-06-11-12</t>
-  </si>
-  <si>
-    <t>21.1</t>
   </si>
   <si>
     <t>29.8</t>
@@ -500,6 +500,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -529,8 +532,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,11 +913,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -986,11 +990,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -1063,11 +1067,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1106,7 +1110,7 @@
         <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
         <v>63</v>
@@ -1140,7 +1144,7 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
@@ -1183,7 +1187,7 @@
         <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
         <v>70</v>
@@ -1217,11 +1221,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1294,7 +1298,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
@@ -1337,7 +1341,7 @@
         <v>27</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s">
         <v>70</v>
@@ -1371,7 +1375,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B8" t="s">
@@ -1448,11 +1452,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1525,7 +1529,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B10" t="s">
@@ -1602,11 +1606,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
         <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -1679,7 +1683,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B12" t="s">
@@ -1722,7 +1726,7 @@
         <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
         <v>38</v>
@@ -1756,11 +1760,11 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -1833,11 +1837,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
         <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1910,11 +1914,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -1987,11 +1991,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -2021,7 +2025,7 @@
         <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" t="s">
         <v>69</v>
@@ -2064,7 +2068,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B17" t="s">
@@ -2141,7 +2145,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B18" t="s">
@@ -2184,7 +2188,7 @@
         <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P18" t="s">
         <v>139</v>
@@ -2218,7 +2222,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B19" t="s">
@@ -2295,7 +2299,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B20" t="s">
@@ -2372,7 +2376,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B21" t="s">
@@ -2415,7 +2419,7 @@
         <v>138</v>
       </c>
       <c r="O21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s">
         <v>153</v>
@@ -2449,7 +2453,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B22" t="s">
@@ -2526,11 +2530,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
@@ -2569,7 +2573,7 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
         <v>139</v>
@@ -2603,11 +2607,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -2680,7 +2684,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B25" t="s">
